--- a/src/test/resources/sample/SomeDomainTemplate.xlsx
+++ b/src/test/resources/sample/SomeDomainTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -30,20 +30,17 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
-    <t>Export Summary</t>
+    <t>domain</t>
   </si>
   <si>
     <t>Table 1</t>
-  </si>
-  <si>
-    <t>domain</t>
   </si>
   <si>
     <r>
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>domain</t>
@@ -57,7 +54,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>schemas</t>
@@ -71,7 +68,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>SCHEMA1</t>
@@ -85,7 +82,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>_policies</t>
@@ -99,7 +96,7 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="11"/>
+        <color indexed="13"/>
         <rFont val="Arial"/>
       </rPr>
       <t>SCHEMA2</t>
@@ -118,6 +115,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Tags</t>
+  </si>
+  <si>
     <t>someDomain</t>
   </si>
   <si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>A description of the domain</t>
+  </si>
+  <si>
+    <t>aTag</t>
   </si>
   <si>
     <t>Source</t>
@@ -526,6 +529,16 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -534,20 +547,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="12"/>
-      <color indexed="11"/>
+      <color indexed="13"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -576,7 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -597,11 +600,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -610,7 +613,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -618,17 +621,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -645,7 +648,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -653,23 +656,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,22 +681,22 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,43 +750,43 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="hair">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,13 +795,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,143 +811,128 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -970,11 +958,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1201,6 +1189,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1230,6 +1219,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1255,6 +1245,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1280,6 +1271,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1305,6 +1297,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1330,6 +1323,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1355,6 +1349,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1380,6 +1375,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1405,6 +1401,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1430,6 +1427,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1480,6 +1478,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1505,6 +1504,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1530,6 +1530,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1555,6 +1556,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1580,6 +1582,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1605,6 +1608,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1630,6 +1634,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1655,6 +1660,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1680,6 +1686,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1705,6 +1712,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1752,6 +1760,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1781,6 +1790,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1806,6 +1816,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1831,6 +1842,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1856,6 +1868,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1881,6 +1894,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1906,6 +1920,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1931,6 +1946,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1956,6 +1972,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1981,6 +1998,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
+          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -2015,213 +2033,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="1" max="1" width="2" style="6" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
-    <col min="2" max="2" width="33.6719" style="6" customWidth="1"/>
-    <col min="3" max="3" width="33.6719" style="6" customWidth="1"/>
-    <col min="4" max="4" width="33.6719" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="4" width="33.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="0.05" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s" s="13">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" ht="8" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" t="s" s="14">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="18.5" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s" s="9">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="14">
+      <c r="C7" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="14">
+      <c r="D7" t="s" s="9">
         <v>3</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="16.6" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" ht="16.6" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="17"/>
-      <c r="C10" t="s" s="18">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="19">
+      <c r="D12" t="s" s="14">
+        <v>6</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s" s="10">
         <v>7</v>
       </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="12"/>
+      <c r="C14" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" t="s" s="3">
+      <c r="D14" t="s" s="14">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" ht="13" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" ht="13" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" t="s" s="3">
+      <c r="D16" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" ht="13" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" ht="13" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" ht="13" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D16" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" ht="13" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" t="s" s="3">
+      <c r="D18" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" ht="13" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="4"/>
-      <c r="C18" t="s" s="4">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" ht="13" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" ht="13" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D18" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" ht="13" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" t="s" s="3">
+      <c r="D20" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" ht="13" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="4"/>
-      <c r="C20" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'domain'!R1C1" tooltip="" display="domain"/>
-    <hyperlink ref="D12" location="'domain'!R1C1" tooltip="" display="domain"/>
-    <hyperlink ref="D14" location="'schemas'!R1C1" tooltip="" display="schemas"/>
-    <hyperlink ref="D16" location="'SCHEMA1'!R1C1" tooltip="" display="SCHEMA1"/>
-    <hyperlink ref="D18" location="'_policies'!R1C1" tooltip="" display="_policies"/>
-    <hyperlink ref="D20" location="'SCHEMA2'!R1C1" tooltip="" display="SCHEMA2"/>
     <hyperlink ref="D12" location="'domain'!R1C1" tooltip="" display="domain"/>
     <hyperlink ref="D14" location="'schemas'!R1C1" tooltip="" display="schemas"/>
     <hyperlink ref="D16" location="'SCHEMA1'!R1C1" tooltip="" display="SCHEMA1"/>
@@ -2244,97 +2251,101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.1719" style="25" customWidth="1"/>
-    <col min="2" max="2" width="26.3516" style="25" customWidth="1"/>
-    <col min="3" max="3" width="4.17188" style="25" customWidth="1"/>
-    <col min="4" max="4" width="24.8516" style="25" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="25" customWidth="1"/>
+    <col min="1" max="1" width="20.1719" style="20" customWidth="1"/>
+    <col min="2" max="2" width="26.3516" style="20" customWidth="1"/>
+    <col min="3" max="3" width="4.17188" style="20" customWidth="1"/>
+    <col min="4" max="4" width="24.8516" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="26">
+      <c r="A1" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s" s="21">
         <v>16</v>
       </c>
-      <c r="B1" t="s" s="26">
+      <c r="C1" t="s" s="21">
         <v>17</v>
       </c>
-      <c r="C1" t="s" s="26">
+      <c r="D1" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="D1" t="s" s="26">
+      <c r="E1" t="s" s="21">
         <v>19</v>
       </c>
-      <c r="E1" s="27"/>
     </row>
     <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="26">
+      <c r="A2" t="s" s="21">
         <v>20</v>
       </c>
-      <c r="B2" t="s" s="26">
+      <c r="B2" t="s" s="21">
         <v>21</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" t="s" s="26">
+      <c r="C2" s="22"/>
+      <c r="D2" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" t="s" s="21">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
@@ -2353,429 +2364,429 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="28" customWidth="1"/>
-    <col min="2" max="2" width="22.6719" style="28" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="28" customWidth="1"/>
-    <col min="4" max="4" width="24.6719" style="28" customWidth="1"/>
-    <col min="5" max="5" width="10.1719" style="28" customWidth="1"/>
-    <col min="6" max="7" width="10.8516" style="28" customWidth="1"/>
-    <col min="8" max="8" width="14.6719" style="28" customWidth="1"/>
-    <col min="9" max="9" width="13.1719" style="28" customWidth="1"/>
-    <col min="10" max="10" width="17.6719" style="28" customWidth="1"/>
-    <col min="11" max="11" width="10.8516" style="28" customWidth="1"/>
-    <col min="12" max="12" width="17.1719" style="28" customWidth="1"/>
-    <col min="13" max="13" width="41.8516" style="28" customWidth="1"/>
-    <col min="14" max="22" width="10.8516" style="28" customWidth="1"/>
-    <col min="23" max="23" width="14.6719" style="28" customWidth="1"/>
-    <col min="24" max="16384" width="10.8516" style="28" customWidth="1"/>
+    <col min="1" max="1" width="10.8516" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.6719" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.8516" style="23" customWidth="1"/>
+    <col min="4" max="4" width="24.6719" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.1719" style="23" customWidth="1"/>
+    <col min="6" max="7" width="10.8516" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.6719" style="23" customWidth="1"/>
+    <col min="9" max="9" width="13.1719" style="23" customWidth="1"/>
+    <col min="10" max="10" width="17.6719" style="23" customWidth="1"/>
+    <col min="11" max="11" width="10.8516" style="23" customWidth="1"/>
+    <col min="12" max="12" width="17.1719" style="23" customWidth="1"/>
+    <col min="13" max="13" width="41.8516" style="23" customWidth="1"/>
+    <col min="14" max="22" width="10.8516" style="23" customWidth="1"/>
+    <col min="23" max="23" width="14.6719" style="23" customWidth="1"/>
+    <col min="24" max="16384" width="10.8516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="45.35" customHeight="1">
-      <c r="A1" t="s" s="29">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s" s="29">
+      <c r="A1" t="s" s="24">
         <v>24</v>
       </c>
-      <c r="C1" t="s" s="30">
+      <c r="B1" t="s" s="24">
         <v>25</v>
       </c>
-      <c r="D1" t="s" s="30">
+      <c r="C1" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="E1" t="s" s="30">
+      <c r="D1" t="s" s="25">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="30">
+      <c r="E1" t="s" s="25">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="31">
+      <c r="F1" t="s" s="25">
         <v>29</v>
       </c>
-      <c r="H1" t="s" s="32">
+      <c r="G1" t="s" s="26">
         <v>30</v>
       </c>
-      <c r="I1" t="s" s="32">
+      <c r="H1" t="s" s="27">
         <v>31</v>
       </c>
-      <c r="J1" t="s" s="33">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s" s="26">
+      <c r="I1" t="s" s="27">
         <v>32</v>
       </c>
-      <c r="L1" t="s" s="26">
+      <c r="J1" t="s" s="28">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s" s="21">
         <v>33</v>
       </c>
-      <c r="M1" t="s" s="26">
+      <c r="L1" t="s" s="21">
         <v>34</v>
       </c>
-      <c r="N1" t="s" s="26">
+      <c r="M1" t="s" s="21">
         <v>35</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" t="s" s="34">
+      <c r="N1" t="s" s="21">
         <v>36</v>
       </c>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" t="s" s="29">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="29">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s" s="29">
+      <c r="A2" t="s" s="24">
         <v>38</v>
       </c>
-      <c r="C2" t="s" s="29">
+      <c r="B2" t="s" s="24">
         <v>39</v>
       </c>
-      <c r="D2" t="s" s="29">
+      <c r="C2" t="s" s="24">
         <v>40</v>
       </c>
-      <c r="E2" t="s" s="29">
+      <c r="D2" t="s" s="24">
         <v>41</v>
       </c>
-      <c r="F2" t="b" s="35">
+      <c r="E2" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="F2" t="b" s="30">
         <f t="shared" si="0" ref="F2:F3">FALSE</f>
         <v>0</v>
       </c>
-      <c r="G2" t="s" s="31">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s" s="36">
+      <c r="G2" t="s" s="26">
         <v>43</v>
       </c>
-      <c r="I2" t="s" s="36">
+      <c r="H2" t="s" s="31">
         <v>44</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="38">
+      <c r="I2" t="s" s="31">
+        <v>45</v>
+      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="33">
         <v>10</v>
       </c>
-      <c r="M2" t="s" s="26">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s" s="26">
+      <c r="M2" t="s" s="21">
         <v>46</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" t="s" s="26">
+      <c r="N2" t="s" s="21">
         <v>47</v>
       </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" t="s" s="21">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="29">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s" s="29">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s" s="29">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="29">
+      <c r="A3" t="s" s="24">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="24">
         <v>49</v>
       </c>
-      <c r="E3" t="s" s="29">
+      <c r="C3" t="s" s="24">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s" s="24">
         <v>50</v>
       </c>
-      <c r="F3" t="b" s="35">
+      <c r="E3" t="s" s="24">
+        <v>51</v>
+      </c>
+      <c r="F3" t="b" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" t="s" s="31">
-        <v>51</v>
-      </c>
-      <c r="H3" s="39"/>
-      <c r="I3" t="s" s="36">
+      <c r="G3" t="s" s="26">
         <v>52</v>
       </c>
-      <c r="J3" t="s" s="33">
+      <c r="H3" s="34"/>
+      <c r="I3" t="s" s="31">
         <v>53</v>
       </c>
-      <c r="K3" t="s" s="40">
+      <c r="J3" t="s" s="28">
         <v>54</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" t="s" s="26">
+      <c r="K3" t="s" s="35">
         <v>55</v>
       </c>
-      <c r="N3" t="s" s="26">
-        <v>46</v>
-      </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
+      <c r="L3" s="22"/>
+      <c r="M3" t="s" s="21">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s" s="21">
+        <v>47</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
     </row>
     <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
@@ -2794,853 +2805,853 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.8516" style="43" customWidth="1"/>
-    <col min="2" max="2" width="22.8516" style="43" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="43" customWidth="1"/>
-    <col min="4" max="4" width="10.6719" style="43" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="43" customWidth="1"/>
-    <col min="6" max="6" width="19" style="43" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="43" customWidth="1"/>
-    <col min="8" max="8" width="15.8516" style="43" customWidth="1"/>
-    <col min="9" max="9" width="30.3516" style="43" customWidth="1"/>
-    <col min="10" max="11" width="10.8516" style="43" customWidth="1"/>
-    <col min="12" max="12" width="11.3516" style="43" customWidth="1"/>
-    <col min="13" max="14" width="10.6719" style="43" customWidth="1"/>
-    <col min="15" max="22" width="10.8516" style="43" customWidth="1"/>
-    <col min="23" max="23" width="17" style="43" customWidth="1"/>
-    <col min="24" max="16384" width="10.8516" style="43" customWidth="1"/>
+    <col min="1" max="1" width="13.8516" style="38" customWidth="1"/>
+    <col min="2" max="2" width="22.8516" style="38" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="38" customWidth="1"/>
+    <col min="5" max="5" width="10.8516" style="38" customWidth="1"/>
+    <col min="6" max="6" width="19" style="38" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="38" customWidth="1"/>
+    <col min="8" max="8" width="15.8516" style="38" customWidth="1"/>
+    <col min="9" max="9" width="30.3516" style="38" customWidth="1"/>
+    <col min="10" max="11" width="10.8516" style="38" customWidth="1"/>
+    <col min="12" max="12" width="11.3516" style="38" customWidth="1"/>
+    <col min="13" max="14" width="10.6719" style="38" customWidth="1"/>
+    <col min="15" max="22" width="10.8516" style="38" customWidth="1"/>
+    <col min="23" max="23" width="17" style="38" customWidth="1"/>
+    <col min="24" max="16384" width="10.8516" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="105.35" customHeight="1">
-      <c r="A1" t="s" s="29">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s" s="29">
+      <c r="A1" t="s" s="24">
         <v>57</v>
       </c>
-      <c r="C1" t="s" s="29">
+      <c r="B1" t="s" s="24">
         <v>58</v>
       </c>
-      <c r="D1" t="s" s="30">
+      <c r="C1" t="s" s="24">
         <v>59</v>
       </c>
-      <c r="E1" t="s" s="29">
+      <c r="D1" t="s" s="25">
         <v>60</v>
       </c>
-      <c r="F1" t="s" s="30">
+      <c r="E1" t="s" s="24">
         <v>61</v>
       </c>
-      <c r="G1" t="s" s="29">
+      <c r="F1" t="s" s="25">
         <v>62</v>
       </c>
-      <c r="H1" t="s" s="29">
+      <c r="G1" t="s" s="24">
         <v>63</v>
       </c>
-      <c r="I1" t="s" s="29">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s" s="29">
+      <c r="H1" t="s" s="24">
         <v>64</v>
       </c>
-      <c r="K1" t="s" s="29">
+      <c r="I1" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s" s="24">
         <v>65</v>
       </c>
-      <c r="L1" t="s" s="30">
+      <c r="K1" t="s" s="24">
         <v>66</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
+      <c r="L1" t="s" s="25">
+        <v>67</v>
+      </c>
+      <c r="M1" s="39"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
     </row>
     <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="29">
-        <v>43</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D2" t="b" s="35">
+      <c r="A2" t="s" s="24">
+        <v>44</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D2" t="b" s="30">
         <f t="shared" si="0" ref="D2:D14">TRUE</f>
         <v>1</v>
       </c>
-      <c r="E2" t="s" s="29">
+      <c r="E2" t="s" s="24">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" t="s" s="24">
+        <v>71</v>
+      </c>
+      <c r="J2" s="30">
+        <v>1</v>
+      </c>
+      <c r="K2" s="30">
+        <v>3</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" ht="15.35" customHeight="1">
+      <c r="A3" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" t="s" s="24">
         <v>68</v>
       </c>
-      <c r="F2" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" t="s" s="29">
-        <v>70</v>
-      </c>
-      <c r="J2" s="35">
-        <v>1</v>
-      </c>
-      <c r="K2" s="35">
-        <v>3</v>
-      </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-    </row>
-    <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="29">
-        <v>71</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D3" t="b" s="35">
+      <c r="D3" t="b" s="30">
         <f t="shared" si="1" ref="D3:D20">FALSE</f>
         <v>0</v>
       </c>
-      <c r="E3" t="s" s="29">
-        <v>72</v>
-      </c>
-      <c r="F3" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" t="s" s="29">
+      <c r="E3" t="s" s="24">
         <v>73</v>
       </c>
-      <c r="J3" s="35">
+      <c r="F3" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="J3" s="30">
         <v>4</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="30">
         <v>15</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="29">
-        <v>74</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D4" t="b" s="35">
+      <c r="A4" t="s" s="24">
+        <v>75</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D4" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" t="s" s="29">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" t="s" s="29">
+      <c r="E4" t="s" s="24">
         <v>76</v>
       </c>
-      <c r="J4" s="35">
+      <c r="F4" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" t="s" s="24">
+        <v>77</v>
+      </c>
+      <c r="J4" s="30">
         <v>16</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="30">
         <v>16</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="29">
-        <v>77</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" t="s" s="29">
+      <c r="A5" t="s" s="24">
         <v>78</v>
       </c>
-      <c r="D5" t="b" s="35">
+      <c r="B5" s="40"/>
+      <c r="C5" t="s" s="24">
+        <v>79</v>
+      </c>
+      <c r="D5" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" t="s" s="29">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s" s="29">
+      <c r="E5" s="40"/>
+      <c r="F5" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" t="s" s="24">
         <v>80</v>
       </c>
-      <c r="J5" s="35">
+      <c r="I5" t="s" s="24">
+        <v>81</v>
+      </c>
+      <c r="J5" s="30">
         <v>17</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="30">
         <v>26</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="29">
-        <v>81</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D6" t="b" s="35">
+      <c r="A6" t="s" s="24">
+        <v>82</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D6" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" t="s" s="29">
-        <v>82</v>
-      </c>
-      <c r="J6" s="35">
+      <c r="E6" s="40"/>
+      <c r="F6" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" t="s" s="24">
+        <v>83</v>
+      </c>
+      <c r="J6" s="30">
         <v>27</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="30">
         <v>45</v>
       </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="29">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s" s="29">
+      <c r="A7" t="s" s="24">
         <v>84</v>
       </c>
-      <c r="C7" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D7" t="b" s="35">
+      <c r="B7" t="s" s="24">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D7" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" t="s" s="29">
-        <v>85</v>
-      </c>
-      <c r="J7" s="35">
+      <c r="E7" s="40"/>
+      <c r="F7" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" t="s" s="24">
+        <v>86</v>
+      </c>
+      <c r="J7" s="30">
         <v>46</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="30">
         <v>48</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" t="s" s="29">
-        <v>86</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D8" t="b" s="35">
+      <c r="A8" t="s" s="24">
+        <v>87</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D8" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" t="s" s="29">
-        <v>87</v>
-      </c>
-      <c r="J8" s="35">
+      <c r="E8" s="40"/>
+      <c r="F8" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" t="s" s="24">
+        <v>88</v>
+      </c>
+      <c r="J8" s="30">
         <v>49</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="30">
         <v>49</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="29">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s" s="29">
+      <c r="A9" t="s" s="24">
         <v>89</v>
       </c>
-      <c r="C9" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D9" t="b" s="35">
+      <c r="B9" t="s" s="24">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D9" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" t="s" s="29">
-        <v>90</v>
-      </c>
-      <c r="J9" s="35">
+      <c r="E9" s="40"/>
+      <c r="F9" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" t="s" s="24">
+        <v>91</v>
+      </c>
+      <c r="J9" s="30">
         <v>50</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="30">
         <v>51</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="29">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s" s="29">
+      <c r="A10" t="s" s="24">
         <v>92</v>
       </c>
-      <c r="C10" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D10" t="b" s="35">
+      <c r="B10" t="s" s="24">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D10" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" t="s" s="29">
-        <v>93</v>
-      </c>
-      <c r="J10" s="35">
+      <c r="E10" s="40"/>
+      <c r="F10" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" t="s" s="24">
+        <v>94</v>
+      </c>
+      <c r="J10" s="30">
         <v>52</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="30">
         <v>52</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="29">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s" s="29">
+      <c r="A11" t="s" s="24">
         <v>95</v>
       </c>
-      <c r="C11" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D11" t="b" s="35">
+      <c r="B11" t="s" s="24">
+        <v>96</v>
+      </c>
+      <c r="C11" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D11" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" t="s" s="29">
-        <v>96</v>
-      </c>
-      <c r="J11" s="35">
+      <c r="E11" s="40"/>
+      <c r="F11" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" t="s" s="24">
+        <v>97</v>
+      </c>
+      <c r="J11" s="30">
         <v>53</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="30">
         <v>54</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
     </row>
     <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" t="s" s="29">
-        <v>97</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D12" t="b" s="35">
+      <c r="A12" t="s" s="24">
+        <v>98</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D12" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G12" t="s" s="29">
-        <v>98</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" t="s" s="29">
+      <c r="E12" s="40"/>
+      <c r="F12" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s" s="24">
         <v>99</v>
       </c>
-      <c r="J12" s="35">
+      <c r="H12" s="40"/>
+      <c r="I12" t="s" s="24">
+        <v>100</v>
+      </c>
+      <c r="J12" s="30">
         <v>55</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="30">
         <v>55</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="29">
-        <v>100</v>
-      </c>
-      <c r="B13" t="s" s="29">
+      <c r="A13" t="s" s="24">
         <v>101</v>
       </c>
-      <c r="C13" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D13" t="b" s="35">
+      <c r="B13" t="s" s="24">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D13" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" t="s" s="29">
-        <v>102</v>
-      </c>
-      <c r="J13" s="35">
+      <c r="E13" s="40"/>
+      <c r="F13" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" t="s" s="24">
+        <v>103</v>
+      </c>
+      <c r="J13" s="30">
         <v>56</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="30">
         <v>65</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="29">
-        <v>103</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D14" t="b" s="35">
+      <c r="A14" t="s" s="24">
+        <v>104</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D14" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" t="s" s="29">
-        <v>104</v>
-      </c>
-      <c r="J14" s="35">
+      <c r="E14" s="40"/>
+      <c r="F14" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" t="s" s="24">
+        <v>105</v>
+      </c>
+      <c r="J14" s="30">
         <v>66</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="30">
         <v>71</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="29">
-        <v>105</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D15" t="b" s="35">
+      <c r="A15" t="s" s="24">
+        <v>106</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D15" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" t="s" s="29">
-        <v>106</v>
-      </c>
-      <c r="J15" s="35">
+      <c r="E15" s="40"/>
+      <c r="F15" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" t="s" s="24">
+        <v>107</v>
+      </c>
+      <c r="J15" s="30">
         <v>72</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="30">
         <v>76</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="29">
-        <v>107</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D16" t="b" s="35">
+      <c r="A16" t="s" s="24">
+        <v>108</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D16" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" t="s" s="29">
-        <v>108</v>
-      </c>
-      <c r="J16" s="35">
+      <c r="E16" s="40"/>
+      <c r="F16" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" t="s" s="24">
+        <v>109</v>
+      </c>
+      <c r="J16" s="30">
         <v>77</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="30">
         <v>81</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="29">
-        <v>109</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D17" t="b" s="35">
+      <c r="A17" t="s" s="24">
+        <v>110</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D17" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" t="s" s="29">
-        <v>110</v>
-      </c>
-      <c r="J17" s="35">
+      <c r="E17" s="40"/>
+      <c r="F17" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" t="s" s="24">
+        <v>111</v>
+      </c>
+      <c r="J17" s="30">
         <v>82</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="30">
         <v>86</v>
       </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="29">
-        <v>111</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D18" t="b" s="35">
+      <c r="A18" t="s" s="24">
+        <v>112</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D18" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" t="s" s="29">
-        <v>112</v>
-      </c>
-      <c r="J18" s="35">
+      <c r="E18" s="40"/>
+      <c r="F18" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" t="s" s="24">
+        <v>113</v>
+      </c>
+      <c r="J18" s="30">
         <v>87</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="30">
         <v>91</v>
       </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="29">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s" s="29">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D19" t="b" s="35">
+      <c r="A19" t="s" s="24">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s" s="24">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D19" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" t="s" s="29">
-        <v>114</v>
-      </c>
-      <c r="J19" s="35">
+      <c r="E19" s="40"/>
+      <c r="F19" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" t="s" s="24">
+        <v>115</v>
+      </c>
+      <c r="J19" s="30">
         <v>92</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="30">
         <v>92</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="29">
-        <v>52</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D20" t="b" s="35">
+      <c r="A20" t="s" s="24">
+        <v>53</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D20" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" t="s" s="29">
-        <v>115</v>
-      </c>
-      <c r="J20" s="35">
+      <c r="E20" s="40"/>
+      <c r="F20" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" t="s" s="24">
+        <v>116</v>
+      </c>
+      <c r="J20" s="30">
         <v>93</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="30">
         <v>94</v>
       </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
@@ -3659,101 +3670,101 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="9.17188" style="46" customWidth="1"/>
-    <col min="3" max="3" width="19.1719" style="46" customWidth="1"/>
-    <col min="4" max="5" width="9.17188" style="46" customWidth="1"/>
-    <col min="6" max="16384" width="9.17188" style="46" customWidth="1"/>
+    <col min="1" max="2" width="9.17188" style="41" customWidth="1"/>
+    <col min="3" max="3" width="19.1719" style="41" customWidth="1"/>
+    <col min="4" max="5" width="9.17188" style="41" customWidth="1"/>
+    <col min="6" max="16384" width="9.17188" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.9" customHeight="1">
-      <c r="A1" t="s" s="34">
-        <v>116</v>
-      </c>
-      <c r="B1" t="s" s="34">
+      <c r="A1" t="s" s="29">
         <v>117</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="B1" t="s" s="29">
         <v>118</v>
       </c>
-      <c r="D1" t="s" s="34">
-        <v>19</v>
-      </c>
-      <c r="E1" s="27"/>
+      <c r="C1" t="s" s="29">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s" s="29">
+        <v>18</v>
+      </c>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="26">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s" s="26">
+      <c r="A2" t="s" s="21">
         <v>120</v>
       </c>
-      <c r="C2" t="s" s="26">
+      <c r="B2" t="s" s="21">
         <v>121</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" t="s" s="21">
+        <v>122</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="26">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s" s="26">
+      <c r="A3" t="s" s="21">
         <v>123</v>
       </c>
-      <c r="C3" t="s" s="26">
+      <c r="B3" t="s" s="21">
         <v>124</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="C3" t="s" s="21">
+        <v>125</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3772,535 +3783,535 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="47" customWidth="1"/>
-    <col min="2" max="2" width="15.1719" style="47" customWidth="1"/>
-    <col min="3" max="3" width="16" style="47" customWidth="1"/>
-    <col min="4" max="4" width="10.6719" style="47" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="47" customWidth="1"/>
-    <col min="6" max="6" width="23" style="47" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="47" customWidth="1"/>
-    <col min="8" max="8" width="16.1719" style="47" customWidth="1"/>
-    <col min="9" max="9" width="30.3516" style="47" customWidth="1"/>
-    <col min="10" max="12" width="10.8516" style="47" customWidth="1"/>
-    <col min="13" max="16384" width="10.8516" style="47" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="42" customWidth="1"/>
+    <col min="2" max="2" width="15.1719" style="42" customWidth="1"/>
+    <col min="3" max="3" width="16" style="42" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="42" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="42" customWidth="1"/>
+    <col min="6" max="6" width="23" style="42" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="42" customWidth="1"/>
+    <col min="8" max="8" width="16.1719" style="42" customWidth="1"/>
+    <col min="9" max="9" width="30.3516" style="42" customWidth="1"/>
+    <col min="10" max="12" width="10.8516" style="42" customWidth="1"/>
+    <col min="13" max="16384" width="10.8516" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="105.35" customHeight="1">
-      <c r="A1" t="s" s="29">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s" s="29">
+      <c r="A1" t="s" s="24">
         <v>57</v>
       </c>
-      <c r="C1" t="s" s="29">
+      <c r="B1" t="s" s="24">
         <v>58</v>
       </c>
-      <c r="D1" t="s" s="30">
+      <c r="C1" t="s" s="24">
         <v>59</v>
       </c>
-      <c r="E1" t="s" s="29">
+      <c r="D1" t="s" s="25">
         <v>60</v>
       </c>
-      <c r="F1" t="s" s="30">
+      <c r="E1" t="s" s="24">
         <v>61</v>
       </c>
-      <c r="G1" t="s" s="29">
+      <c r="F1" t="s" s="25">
         <v>62</v>
       </c>
-      <c r="H1" t="s" s="29">
+      <c r="G1" t="s" s="24">
         <v>63</v>
       </c>
-      <c r="I1" t="s" s="29">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s" s="29">
+      <c r="H1" t="s" s="24">
         <v>64</v>
       </c>
-      <c r="K1" t="s" s="29">
+      <c r="I1" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s" s="24">
         <v>65</v>
       </c>
-      <c r="L1" t="s" s="30">
+      <c r="K1" t="s" s="24">
         <v>66</v>
       </c>
+      <c r="L1" t="s" s="25">
+        <v>67</v>
+      </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
-      <c r="A2" t="s" s="29">
-        <v>125</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D2" t="b" s="35">
+      <c r="A2" t="s" s="24">
+        <v>126</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D2" t="b" s="30">
         <f t="shared" si="0" ref="D2:D20">TRUE</f>
         <v>1</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" t="s" s="29">
+      <c r="E2" s="40"/>
+      <c r="F2" t="s" s="24">
         <v>70</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" t="s" s="24">
+        <v>71</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" t="s" s="29">
-        <v>126</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" t="s" s="29">
-        <v>78</v>
-      </c>
-      <c r="D3" t="b" s="35">
+      <c r="A3" t="s" s="24">
+        <v>127</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" t="s" s="24">
+        <v>79</v>
+      </c>
+      <c r="D3" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" t="s" s="29">
-        <v>73</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
+      <c r="E3" s="40"/>
+      <c r="F3" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" t="s" s="29">
-        <v>127</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" t="s" s="29">
+      <c r="A4" t="s" s="24">
         <v>128</v>
       </c>
-      <c r="D4" t="b" s="35">
+      <c r="B4" s="40"/>
+      <c r="C4" t="s" s="24">
+        <v>129</v>
+      </c>
+      <c r="D4" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" t="s" s="29">
-        <v>76</v>
-      </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
+      <c r="E4" s="40"/>
+      <c r="F4" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" t="s" s="24">
+        <v>77</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" t="s" s="29">
-        <v>129</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D5" t="b" s="35">
+      <c r="A5" t="s" s="24">
+        <v>130</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D5" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" t="s" s="29">
-        <v>80</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="E5" s="40"/>
+      <c r="F5" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" t="s" s="24">
+        <v>81</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" t="s" s="29">
-        <v>130</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D6" t="b" s="35">
+      <c r="A6" t="s" s="24">
+        <v>131</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D6" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" t="s" s="29">
-        <v>82</v>
-      </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
+      <c r="E6" s="40"/>
+      <c r="F6" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" t="s" s="24">
+        <v>83</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" t="s" s="29">
-        <v>131</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" t="s" s="29">
+      <c r="A7" t="s" s="24">
         <v>132</v>
       </c>
-      <c r="D7" t="b" s="35">
+      <c r="B7" s="40"/>
+      <c r="C7" t="s" s="24">
+        <v>133</v>
+      </c>
+      <c r="D7" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" t="s" s="29">
-        <v>85</v>
-      </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="E7" s="40"/>
+      <c r="F7" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" t="s" s="24">
+        <v>86</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" t="s" s="29">
+      <c r="A8" t="s" s="24">
+        <v>134</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" t="s" s="24">
         <v>133</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" t="s" s="29">
-        <v>132</v>
-      </c>
-      <c r="D8" t="b" s="35">
+      <c r="D8" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" t="s" s="29">
-        <v>87</v>
-      </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="E8" s="40"/>
+      <c r="F8" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" t="s" s="24">
+        <v>88</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" t="s" s="29">
-        <v>134</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D9" t="b" s="35">
+      <c r="A9" t="s" s="24">
+        <v>135</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D9" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" t="s" s="29">
+      <c r="E9" t="s" s="24">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" t="s" s="24">
+        <v>91</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" t="s" s="24">
+        <v>136</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" t="s" s="24">
         <v>68</v>
       </c>
-      <c r="F9" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" t="s" s="29">
-        <v>90</v>
-      </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-    </row>
-    <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" t="s" s="29">
-        <v>135</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D10" t="b" s="35">
+      <c r="D10" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E10" t="s" s="29">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" t="s" s="29">
-        <v>93</v>
-      </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
+      <c r="E10" t="s" s="24">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" t="s" s="24">
+        <v>94</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" ht="15.35" customHeight="1">
-      <c r="A11" t="s" s="29">
-        <v>136</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D11" t="b" s="35">
+      <c r="A11" t="s" s="24">
+        <v>137</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D11" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" t="s" s="29">
-        <v>96</v>
-      </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="E11" s="40"/>
+      <c r="F11" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" t="s" s="24">
+        <v>97</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" ht="15.35" customHeight="1">
-      <c r="A12" t="s" s="29">
-        <v>137</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" t="s" s="29">
+      <c r="A12" t="s" s="24">
         <v>138</v>
       </c>
-      <c r="D12" t="b" s="35">
+      <c r="B12" s="40"/>
+      <c r="C12" t="s" s="24">
+        <v>139</v>
+      </c>
+      <c r="D12" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" t="s" s="29">
-        <v>99</v>
-      </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="E12" s="40"/>
+      <c r="F12" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" t="s" s="24">
+        <v>100</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" ht="15.35" customHeight="1">
-      <c r="A13" t="s" s="29">
-        <v>139</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D13" t="b" s="35">
+      <c r="A13" t="s" s="24">
+        <v>140</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D13" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" t="s" s="29">
-        <v>102</v>
-      </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="E13" s="40"/>
+      <c r="F13" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" t="s" s="24">
+        <v>103</v>
+      </c>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" ht="15.35" customHeight="1">
-      <c r="A14" t="s" s="29">
-        <v>140</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D14" t="b" s="35">
+      <c r="A14" t="s" s="24">
+        <v>141</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D14" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" t="s" s="29">
-        <v>104</v>
-      </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
+      <c r="E14" s="40"/>
+      <c r="F14" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" t="s" s="24">
+        <v>105</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" t="s" s="29">
-        <v>141</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D15" t="b" s="35">
+      <c r="A15" t="s" s="24">
+        <v>142</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D15" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" t="s" s="29">
-        <v>106</v>
-      </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="E15" s="40"/>
+      <c r="F15" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" t="s" s="24">
+        <v>107</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" ht="15.35" customHeight="1">
-      <c r="A16" t="s" s="29">
-        <v>142</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D16" t="b" s="35">
+      <c r="A16" t="s" s="24">
+        <v>143</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D16" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" t="s" s="29">
-        <v>108</v>
-      </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="E16" s="40"/>
+      <c r="F16" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" t="s" s="24">
+        <v>109</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" ht="15.35" customHeight="1">
-      <c r="A17" t="s" s="29">
-        <v>143</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" t="s" s="29">
-        <v>78</v>
-      </c>
-      <c r="D17" t="b" s="35">
+      <c r="A17" t="s" s="24">
+        <v>144</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" t="s" s="24">
+        <v>79</v>
+      </c>
+      <c r="D17" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" t="s" s="29">
-        <v>110</v>
-      </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="E17" s="40"/>
+      <c r="F17" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" t="s" s="24">
+        <v>111</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
     </row>
     <row r="18" ht="15.35" customHeight="1">
-      <c r="A18" t="s" s="29">
-        <v>144</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D18" t="b" s="35">
+      <c r="A18" t="s" s="24">
+        <v>145</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D18" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" t="s" s="29">
-        <v>112</v>
-      </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
+      <c r="E18" s="40"/>
+      <c r="F18" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" t="s" s="24">
+        <v>113</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="29">
-        <v>145</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D19" t="b" s="35">
+      <c r="A19" t="s" s="24">
+        <v>146</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D19" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E19" s="45"/>
-      <c r="F19" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" t="s" s="29">
-        <v>114</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
+      <c r="E19" s="40"/>
+      <c r="F19" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" t="s" s="24">
+        <v>115</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" t="s" s="29">
-        <v>146</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D20" t="b" s="35">
+      <c r="A20" t="s" s="24">
+        <v>147</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="D20" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" t="s" s="29">
-        <v>115</v>
-      </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
+      <c r="E20" s="40"/>
+      <c r="F20" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" t="s" s="24">
+        <v>116</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>

--- a/src/test/resources/sample/SomeDomainTemplate.xlsx
+++ b/src/test/resources/sample/SomeDomainTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Renommer</t>
   </si>
   <si>
     <t>Tags</t>
@@ -2245,7 +2248,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2255,8 +2258,8 @@
     <col min="2" max="2" width="26.3516" style="20" customWidth="1"/>
     <col min="3" max="3" width="4.17188" style="20" customWidth="1"/>
     <col min="4" max="4" width="24.8516" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="20" customWidth="1"/>
+    <col min="5" max="6" width="10.8516" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="10.8516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
@@ -2275,20 +2278,24 @@
       <c r="E1" t="s" s="21">
         <v>19</v>
       </c>
+      <c r="F1" t="s" s="21">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s" s="21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" t="s" s="21">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s" s="21">
         <v>23</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" t="s" s="21">
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
@@ -2297,6 +2304,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="22"/>
@@ -2304,6 +2312,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="22"/>
@@ -2311,6 +2320,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="22"/>
@@ -2318,6 +2328,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="22"/>
@@ -2325,6 +2336,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" s="22"/>
@@ -2332,6 +2344,7 @@
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" s="22"/>
@@ -2339,6 +2352,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" s="22"/>
@@ -2346,6 +2360,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
@@ -2383,46 +2398,46 @@
   <sheetData>
     <row r="1" ht="45.35" customHeight="1">
       <c r="A1" t="s" s="24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="24">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s" s="25">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s" s="25">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s" s="25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s" s="25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s" s="26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s" s="27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s" s="27">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s" s="28">
         <v>18</v>
       </c>
       <c r="K1" t="s" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s" s="21">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s" s="21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s" s="21">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
@@ -2433,37 +2448,37 @@
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" t="s" s="29">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s" s="24">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s" s="24">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s" s="24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="b" s="30">
         <f t="shared" si="0" ref="F2:F3">FALSE</f>
         <v>0</v>
       </c>
       <c r="G2" t="s" s="26">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="31">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s" s="31">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="22"/>
@@ -2471,10 +2486,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s" s="21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s" s="21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -2485,7 +2500,7 @@
       <c r="U2" s="22"/>
       <c r="V2" s="22"/>
       <c r="W2" t="s" s="21">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="17" customHeight="1">
@@ -2493,40 +2508,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s" s="24">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="24">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s" s="24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s" s="24">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" t="b" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" t="s" s="26">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" t="s" s="31">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s" s="28">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s" s="35">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" s="22"/>
       <c r="M3" t="s" s="21">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s" s="21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -2824,40 +2839,40 @@
   <sheetData>
     <row r="1" ht="105.35" customHeight="1">
       <c r="A1" t="s" s="24">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s" s="24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s" s="24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s" s="25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s" s="24">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s" s="25">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s" s="24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s" s="24">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s" s="24">
         <v>18</v>
       </c>
       <c r="J1" t="s" s="24">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K1" t="s" s="24">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L1" t="s" s="25">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M1" s="39"/>
       <c r="N1" s="22"/>
@@ -2873,26 +2888,26 @@
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" t="b" s="30">
         <f t="shared" si="0" ref="D2:D14">TRUE</f>
         <v>1</v>
       </c>
       <c r="E2" t="s" s="24">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" t="s" s="24">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" s="30">
         <v>1</v>
@@ -2915,26 +2930,26 @@
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="24">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" t="b" s="30">
         <f t="shared" si="1" ref="D3:D20">FALSE</f>
         <v>0</v>
       </c>
       <c r="E3" t="s" s="24">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" t="s" s="24">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" s="30">
         <v>4</v>
@@ -2957,26 +2972,26 @@
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="24">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E4" t="s" s="24">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" t="s" s="24">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J4" s="30">
         <v>16</v>
@@ -2999,11 +3014,11 @@
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="24">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" t="s" s="24">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" t="s" s="24">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="24">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" s="30">
         <v>17</v>
@@ -3041,11 +3056,11 @@
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="24">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3053,12 +3068,12 @@
       </c>
       <c r="E6" s="40"/>
       <c r="F6" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" t="s" s="24">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" s="30">
         <v>27</v>
@@ -3081,13 +3096,13 @@
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="24">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="24">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D7" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3095,12 +3110,12 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" t="s" s="24">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J7" s="30">
         <v>46</v>
@@ -3123,11 +3138,11 @@
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="24">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3135,12 +3150,12 @@
       </c>
       <c r="E8" s="40"/>
       <c r="F8" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" t="s" s="24">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" s="30">
         <v>49</v>
@@ -3163,13 +3178,13 @@
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="24">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s" s="24">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3177,12 +3192,12 @@
       </c>
       <c r="E9" s="40"/>
       <c r="F9" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" t="s" s="24">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" s="30">
         <v>50</v>
@@ -3205,13 +3220,13 @@
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="24">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s" s="24">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3219,12 +3234,12 @@
       </c>
       <c r="E10" s="40"/>
       <c r="F10" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" t="s" s="24">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" s="30">
         <v>52</v>
@@ -3247,13 +3262,13 @@
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="24">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s" s="24">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3261,12 +3276,12 @@
       </c>
       <c r="E11" s="40"/>
       <c r="F11" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" t="s" s="24">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J11" s="30">
         <v>53</v>
@@ -3289,11 +3304,11 @@
     </row>
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="24">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3301,14 +3316,14 @@
       </c>
       <c r="E12" s="40"/>
       <c r="F12" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s" s="24">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" t="s" s="24">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J12" s="30">
         <v>55</v>
@@ -3331,13 +3346,13 @@
     </row>
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="24">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s" s="24">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3345,12 +3360,12 @@
       </c>
       <c r="E13" s="40"/>
       <c r="F13" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" t="s" s="24">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J13" s="30">
         <v>56</v>
@@ -3373,11 +3388,11 @@
     </row>
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="24">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3385,12 +3400,12 @@
       </c>
       <c r="E14" s="40"/>
       <c r="F14" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" t="s" s="24">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J14" s="30">
         <v>66</v>
@@ -3413,11 +3428,11 @@
     </row>
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="24">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3425,12 +3440,12 @@
       </c>
       <c r="E15" s="40"/>
       <c r="F15" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" t="s" s="24">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J15" s="30">
         <v>72</v>
@@ -3453,11 +3468,11 @@
     </row>
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="24">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3465,12 +3480,12 @@
       </c>
       <c r="E16" s="40"/>
       <c r="F16" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" t="s" s="24">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J16" s="30">
         <v>77</v>
@@ -3493,11 +3508,11 @@
     </row>
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="24">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3505,12 +3520,12 @@
       </c>
       <c r="E17" s="40"/>
       <c r="F17" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" t="s" s="24">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J17" s="30">
         <v>82</v>
@@ -3533,11 +3548,11 @@
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="24">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3545,12 +3560,12 @@
       </c>
       <c r="E18" s="40"/>
       <c r="F18" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" t="s" s="24">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J18" s="30">
         <v>87</v>
@@ -3573,13 +3588,13 @@
     </row>
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="24">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s" s="24">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3587,12 +3602,12 @@
       </c>
       <c r="E19" s="40"/>
       <c r="F19" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" t="s" s="24">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J19" s="30">
         <v>92</v>
@@ -3615,11 +3630,11 @@
     </row>
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3627,12 +3642,12 @@
       </c>
       <c r="E20" s="40"/>
       <c r="F20" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" t="s" s="24">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J20" s="30">
         <v>93</v>
@@ -3678,13 +3693,13 @@
   <sheetData>
     <row r="1" ht="17.9" customHeight="1">
       <c r="A1" t="s" s="29">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s" s="29">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s" s="29">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s" s="29">
         <v>18</v>
@@ -3693,26 +3708,26 @@
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" t="s" s="21">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s" s="21">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s" s="21">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="21">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s" s="21">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s" s="21">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -3798,49 +3813,49 @@
   <sheetData>
     <row r="1" ht="105.35" customHeight="1">
       <c r="A1" t="s" s="24">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s" s="24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s" s="24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s" s="25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s" s="24">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s" s="25">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s" s="24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s" s="24">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s" s="24">
         <v>18</v>
       </c>
       <c r="J1" t="s" s="24">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K1" t="s" s="24">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L1" t="s" s="25">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" t="b" s="30">
         <f t="shared" si="0" ref="D2:D20">TRUE</f>
@@ -3848,12 +3863,12 @@
       </c>
       <c r="E2" s="40"/>
       <c r="F2" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" t="s" s="24">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
@@ -3861,11 +3876,11 @@
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="24">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" t="s" s="24">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3873,12 +3888,12 @@
       </c>
       <c r="E3" s="40"/>
       <c r="F3" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" t="s" s="24">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -3886,11 +3901,11 @@
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="24">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" t="s" s="24">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D4" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3898,12 +3913,12 @@
       </c>
       <c r="E4" s="40"/>
       <c r="F4" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" t="s" s="24">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -3911,11 +3926,11 @@
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="24">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3923,12 +3938,12 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" t="s" s="24">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
@@ -3936,11 +3951,11 @@
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="24">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3948,12 +3963,12 @@
       </c>
       <c r="E6" s="40"/>
       <c r="F6" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" t="s" s="24">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
@@ -3961,11 +3976,11 @@
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="24">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" t="s" s="24">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D7" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3973,12 +3988,12 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" t="s" s="24">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
@@ -3986,11 +4001,11 @@
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="24">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" t="s" s="24">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3998,12 +4013,12 @@
       </c>
       <c r="E8" s="40"/>
       <c r="F8" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" t="s" s="24">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
@@ -4011,26 +4026,26 @@
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="24">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" t="s" s="24">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" t="s" s="24">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
@@ -4038,26 +4053,26 @@
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="24">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" t="s" s="24">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" t="s" s="24">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
@@ -4065,11 +4080,11 @@
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="24">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4077,12 +4092,12 @@
       </c>
       <c r="E11" s="40"/>
       <c r="F11" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" t="s" s="24">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
@@ -4090,11 +4105,11 @@
     </row>
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="24">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" t="s" s="24">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D12" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4102,12 +4117,12 @@
       </c>
       <c r="E12" s="40"/>
       <c r="F12" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" t="s" s="24">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -4115,11 +4130,11 @@
     </row>
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="24">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4127,12 +4142,12 @@
       </c>
       <c r="E13" s="40"/>
       <c r="F13" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" t="s" s="24">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -4140,11 +4155,11 @@
     </row>
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="24">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4152,12 +4167,12 @@
       </c>
       <c r="E14" s="40"/>
       <c r="F14" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" t="s" s="24">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -4165,11 +4180,11 @@
     </row>
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="24">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4177,12 +4192,12 @@
       </c>
       <c r="E15" s="40"/>
       <c r="F15" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" t="s" s="24">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -4190,11 +4205,11 @@
     </row>
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="24">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4202,12 +4217,12 @@
       </c>
       <c r="E16" s="40"/>
       <c r="F16" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" t="s" s="24">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
@@ -4215,11 +4230,11 @@
     </row>
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="24">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" t="s" s="24">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4227,12 +4242,12 @@
       </c>
       <c r="E17" s="40"/>
       <c r="F17" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" t="s" s="24">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
@@ -4240,11 +4255,11 @@
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="24">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4252,12 +4267,12 @@
       </c>
       <c r="E18" s="40"/>
       <c r="F18" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" t="s" s="24">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
@@ -4265,11 +4280,11 @@
     </row>
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="24">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4277,12 +4292,12 @@
       </c>
       <c r="E19" s="40"/>
       <c r="F19" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" t="s" s="24">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
@@ -4290,11 +4305,11 @@
     </row>
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="24">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" t="s" s="24">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4302,12 +4317,12 @@
       </c>
       <c r="E20" s="40"/>
       <c r="F20" t="s" s="24">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" t="s" s="24">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>

--- a/src/test/resources/sample/SomeDomainTemplate.xlsx
+++ b/src/test/resources/sample/SomeDomainTemplate.xlsx
@@ -11,12 +11,13 @@
     <sheet name="SCHEMA1" sheetId="4" r:id="rId7"/>
     <sheet name="_policies" sheetId="5" r:id="rId8"/>
     <sheet name="SCHEMA2" sheetId="6" r:id="rId9"/>
+    <sheet name="SCHEMA3" sheetId="7" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -235,6 +236,15 @@
   </si>
   <si>
     <t>RENAME_ATTRIBUTE_8, RENAME_ATTRIBUTE_9</t>
+  </si>
+  <si>
+    <t>SCHEMA3</t>
+  </si>
+  <si>
+    <t>SomeFile3_*.csv</t>
+  </si>
+  <si>
+    <t>BQ</t>
   </si>
   <si>
     <t>NomTechnique</t>
@@ -814,7 +824,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -936,6 +946,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2468,7 +2481,7 @@
         <v>43</v>
       </c>
       <c r="F2" t="b" s="30">
-        <f t="shared" si="0" ref="F2:F3">FALSE</f>
+        <f t="shared" si="0" ref="F2:F4">FALSE</f>
         <v>0</v>
       </c>
       <c r="G2" t="s" s="26">
@@ -2554,20 +2567,37 @@
       <c r="W3" s="22"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="A4" t="s" s="24">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s" s="24">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s" s="24">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s" s="24">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s" s="24">
+        <v>52</v>
+      </c>
+      <c r="F4" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s" s="26">
+        <v>53</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="M4" s="21"/>
+      <c r="N4" t="s" s="21">
+        <v>60</v>
+      </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
@@ -2579,15 +2609,15 @@
       <c r="W4" s="22"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -2839,40 +2869,40 @@
   <sheetData>
     <row r="1" ht="105.35" customHeight="1">
       <c r="A1" t="s" s="24">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s" s="24">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s" s="24">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s" s="25">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s" s="24">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s" s="25">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s" s="24">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s" s="24">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s" s="24">
         <v>18</v>
       </c>
       <c r="J1" t="s" s="24">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K1" t="s" s="24">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L1" t="s" s="25">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M1" s="39"/>
       <c r="N1" s="22"/>
@@ -2892,22 +2922,22 @@
       </c>
       <c r="B2" s="40"/>
       <c r="C2" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" t="b" s="30">
         <f t="shared" si="0" ref="D2:D14">TRUE</f>
         <v>1</v>
       </c>
       <c r="E2" t="s" s="24">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" t="s" s="24">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J2" s="30">
         <v>1</v>
@@ -2930,26 +2960,26 @@
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="24">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" t="b" s="30">
         <f t="shared" si="1" ref="D3:D20">FALSE</f>
         <v>0</v>
       </c>
       <c r="E3" t="s" s="24">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" t="s" s="24">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3" s="30">
         <v>4</v>
@@ -2972,26 +3002,26 @@
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="24">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" t="b" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E4" t="s" s="24">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" t="s" s="24">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J4" s="30">
         <v>16</v>
@@ -3014,11 +3044,11 @@
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="24">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" t="s" s="24">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D5" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3026,14 +3056,14 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" t="s" s="24">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="24">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J5" s="30">
         <v>17</v>
@@ -3056,11 +3086,11 @@
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="24">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3068,12 +3098,12 @@
       </c>
       <c r="E6" s="40"/>
       <c r="F6" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" t="s" s="24">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J6" s="30">
         <v>27</v>
@@ -3096,13 +3126,13 @@
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="24">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="24">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3110,12 +3140,12 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" t="s" s="24">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J7" s="30">
         <v>46</v>
@@ -3138,11 +3168,11 @@
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="24">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3150,12 +3180,12 @@
       </c>
       <c r="E8" s="40"/>
       <c r="F8" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" t="s" s="24">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J8" s="30">
         <v>49</v>
@@ -3178,13 +3208,13 @@
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="24">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="24">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D9" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3192,12 +3222,12 @@
       </c>
       <c r="E9" s="40"/>
       <c r="F9" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" t="s" s="24">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J9" s="30">
         <v>50</v>
@@ -3220,13 +3250,13 @@
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="24">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s" s="24">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3234,12 +3264,12 @@
       </c>
       <c r="E10" s="40"/>
       <c r="F10" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" t="s" s="24">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J10" s="30">
         <v>52</v>
@@ -3262,13 +3292,13 @@
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="24">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="24">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3276,12 +3306,12 @@
       </c>
       <c r="E11" s="40"/>
       <c r="F11" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" t="s" s="24">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="30">
         <v>53</v>
@@ -3304,11 +3334,11 @@
     </row>
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="24">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3316,14 +3346,14 @@
       </c>
       <c r="E12" s="40"/>
       <c r="F12" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s" s="24">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" t="s" s="24">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J12" s="30">
         <v>55</v>
@@ -3346,13 +3376,13 @@
     </row>
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="24">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="24">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3360,12 +3390,12 @@
       </c>
       <c r="E13" s="40"/>
       <c r="F13" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" t="s" s="24">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J13" s="30">
         <v>56</v>
@@ -3388,11 +3418,11 @@
     </row>
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="24">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D14" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3400,12 +3430,12 @@
       </c>
       <c r="E14" s="40"/>
       <c r="F14" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" t="s" s="24">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J14" s="30">
         <v>66</v>
@@ -3428,11 +3458,11 @@
     </row>
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="24">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D15" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3440,12 +3470,12 @@
       </c>
       <c r="E15" s="40"/>
       <c r="F15" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" t="s" s="24">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J15" s="30">
         <v>72</v>
@@ -3468,11 +3498,11 @@
     </row>
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="24">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D16" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3480,12 +3510,12 @@
       </c>
       <c r="E16" s="40"/>
       <c r="F16" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" t="s" s="24">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J16" s="30">
         <v>77</v>
@@ -3508,11 +3538,11 @@
     </row>
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="24">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D17" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3520,12 +3550,12 @@
       </c>
       <c r="E17" s="40"/>
       <c r="F17" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" t="s" s="24">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J17" s="30">
         <v>82</v>
@@ -3548,11 +3578,11 @@
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="24">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D18" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3560,12 +3590,12 @@
       </c>
       <c r="E18" s="40"/>
       <c r="F18" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" t="s" s="24">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J18" s="30">
         <v>87</v>
@@ -3588,13 +3618,13 @@
     </row>
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="24">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s" s="24">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3602,12 +3632,12 @@
       </c>
       <c r="E19" s="40"/>
       <c r="F19" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" t="s" s="24">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J19" s="30">
         <v>92</v>
@@ -3634,7 +3664,7 @@
       </c>
       <c r="B20" s="40"/>
       <c r="C20" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D20" t="b" s="30">
         <f t="shared" si="1"/>
@@ -3642,12 +3672,12 @@
       </c>
       <c r="E20" s="40"/>
       <c r="F20" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" t="s" s="24">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J20" s="30">
         <v>93</v>
@@ -3685,21 +3715,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16667" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="9.17188" style="41" customWidth="1"/>
-    <col min="3" max="3" width="19.1719" style="41" customWidth="1"/>
+    <col min="1" max="1" width="9.17188" style="41" customWidth="1"/>
+    <col min="2" max="2" width="14.6484" style="41" customWidth="1"/>
+    <col min="3" max="3" width="28.1641" style="41" customWidth="1"/>
     <col min="4" max="5" width="9.17188" style="41" customWidth="1"/>
     <col min="6" max="16384" width="9.17188" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.9" customHeight="1">
       <c r="A1" t="s" s="29">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s" s="29">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s" s="29">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s" s="29">
         <v>18</v>
@@ -3708,26 +3739,26 @@
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" t="s" s="21">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s" s="21">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s" s="21">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="21">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="21">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s" s="21">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
@@ -3813,49 +3844,49 @@
   <sheetData>
     <row r="1" ht="105.35" customHeight="1">
       <c r="A1" t="s" s="24">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s" s="24">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s" s="24">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s" s="25">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s" s="24">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s" s="25">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s" s="24">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s" s="24">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s" s="24">
         <v>18</v>
       </c>
       <c r="J1" t="s" s="24">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K1" t="s" s="24">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L1" t="s" s="25">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" t="b" s="30">
         <f t="shared" si="0" ref="D2:D20">TRUE</f>
@@ -3863,12 +3894,12 @@
       </c>
       <c r="E2" s="40"/>
       <c r="F2" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G2" s="40"/>
       <c r="H2" s="40"/>
       <c r="I2" t="s" s="24">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
@@ -3876,11 +3907,11 @@
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="24">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" t="s" s="24">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3888,12 +3919,12 @@
       </c>
       <c r="E3" s="40"/>
       <c r="F3" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="I3" t="s" s="24">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
@@ -3901,11 +3932,11 @@
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" t="s" s="24">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B4" s="40"/>
       <c r="C4" t="s" s="24">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D4" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3913,12 +3944,12 @@
       </c>
       <c r="E4" s="40"/>
       <c r="F4" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" t="s" s="24">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
@@ -3926,11 +3957,11 @@
     </row>
     <row r="5" ht="15.35" customHeight="1">
       <c r="A5" t="s" s="24">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B5" s="40"/>
       <c r="C5" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3938,12 +3969,12 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" t="s" s="24">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
@@ -3951,11 +3982,11 @@
     </row>
     <row r="6" ht="15.35" customHeight="1">
       <c r="A6" t="s" s="24">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3963,12 +3994,12 @@
       </c>
       <c r="E6" s="40"/>
       <c r="F6" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
       <c r="I6" t="s" s="24">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
@@ -3976,11 +4007,11 @@
     </row>
     <row r="7" ht="15.35" customHeight="1">
       <c r="A7" t="s" s="24">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" t="s" s="24">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D7" t="b" s="30">
         <f t="shared" si="0"/>
@@ -3988,12 +4019,12 @@
       </c>
       <c r="E7" s="40"/>
       <c r="F7" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="40"/>
       <c r="I7" t="s" s="24">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
@@ -4001,11 +4032,11 @@
     </row>
     <row r="8" ht="15.35" customHeight="1">
       <c r="A8" t="s" s="24">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" t="s" s="24">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D8" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4013,12 +4044,12 @@
       </c>
       <c r="E8" s="40"/>
       <c r="F8" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
       <c r="I8" t="s" s="24">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
@@ -4026,26 +4057,26 @@
     </row>
     <row r="9" ht="15.35" customHeight="1">
       <c r="A9" t="s" s="24">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B9" s="40"/>
       <c r="C9" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D9" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" t="s" s="24">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
       <c r="I9" t="s" s="24">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
@@ -4053,26 +4084,26 @@
     </row>
     <row r="10" ht="15.35" customHeight="1">
       <c r="A10" t="s" s="24">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" t="b" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" t="s" s="24">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
       <c r="I10" t="s" s="24">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
@@ -4080,11 +4111,11 @@
     </row>
     <row r="11" ht="15.35" customHeight="1">
       <c r="A11" t="s" s="24">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4092,12 +4123,12 @@
       </c>
       <c r="E11" s="40"/>
       <c r="F11" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" t="s" s="24">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
@@ -4105,11 +4136,11 @@
     </row>
     <row r="12" ht="15.35" customHeight="1">
       <c r="A12" t="s" s="24">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B12" s="40"/>
       <c r="C12" t="s" s="24">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D12" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4117,12 +4148,12 @@
       </c>
       <c r="E12" s="40"/>
       <c r="F12" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
       <c r="I12" t="s" s="24">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
@@ -4130,11 +4161,11 @@
     </row>
     <row r="13" ht="15.35" customHeight="1">
       <c r="A13" t="s" s="24">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4142,12 +4173,12 @@
       </c>
       <c r="E13" s="40"/>
       <c r="F13" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
       <c r="I13" t="s" s="24">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
@@ -4155,11 +4186,11 @@
     </row>
     <row r="14" ht="15.35" customHeight="1">
       <c r="A14" t="s" s="24">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B14" s="40"/>
       <c r="C14" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D14" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4167,12 +4198,12 @@
       </c>
       <c r="E14" s="40"/>
       <c r="F14" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
       <c r="I14" t="s" s="24">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
@@ -4180,11 +4211,11 @@
     </row>
     <row r="15" ht="15.35" customHeight="1">
       <c r="A15" t="s" s="24">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B15" s="40"/>
       <c r="C15" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D15" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4192,12 +4223,12 @@
       </c>
       <c r="E15" s="40"/>
       <c r="F15" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
       <c r="I15" t="s" s="24">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
@@ -4205,11 +4236,11 @@
     </row>
     <row r="16" ht="15.35" customHeight="1">
       <c r="A16" t="s" s="24">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B16" s="40"/>
       <c r="C16" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D16" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4217,12 +4248,12 @@
       </c>
       <c r="E16" s="40"/>
       <c r="F16" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" t="s" s="24">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
@@ -4230,11 +4261,11 @@
     </row>
     <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="24">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" t="s" s="24">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D17" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4242,12 +4273,12 @@
       </c>
       <c r="E17" s="40"/>
       <c r="F17" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
       <c r="I17" t="s" s="24">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
@@ -4255,11 +4286,11 @@
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="24">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D18" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4267,12 +4298,12 @@
       </c>
       <c r="E18" s="40"/>
       <c r="F18" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" t="s" s="24">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
@@ -4280,11 +4311,11 @@
     </row>
     <row r="19" ht="15.35" customHeight="1">
       <c r="A19" t="s" s="24">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4292,12 +4323,12 @@
       </c>
       <c r="E19" s="40"/>
       <c r="F19" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
       <c r="I19" t="s" s="24">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
@@ -4305,11 +4336,11 @@
     </row>
     <row r="20" ht="15.35" customHeight="1">
       <c r="A20" t="s" s="24">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" t="s" s="24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D20" t="b" s="30">
         <f t="shared" si="0"/>
@@ -4317,12 +4348,559 @@
       </c>
       <c r="E20" s="40"/>
       <c r="F20" t="s" s="24">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" t="s" s="24">
+        <v>120</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="23.5" style="43" customWidth="1"/>
+    <col min="2" max="2" width="15.1719" style="43" customWidth="1"/>
+    <col min="3" max="3" width="16" style="43" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="43" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="43" customWidth="1"/>
+    <col min="6" max="6" width="23" style="43" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="43" customWidth="1"/>
+    <col min="8" max="8" width="16.1719" style="43" customWidth="1"/>
+    <col min="9" max="9" width="30.3516" style="43" customWidth="1"/>
+    <col min="10" max="12" width="10.8516" style="43" customWidth="1"/>
+    <col min="13" max="16384" width="10.8516" style="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="105.35" customHeight="1">
+      <c r="A1" t="s" s="24">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s" s="24">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s" s="24">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s" s="25">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s" s="24">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s" s="25">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s" s="24">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s" s="24">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s" s="24">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s" s="24">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s" s="25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" ht="15.35" customHeight="1">
+      <c r="A2" t="s" s="24">
+        <v>130</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D2" t="b" s="30">
+        <f t="shared" si="0" ref="D2:D20">TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" t="s" s="24">
+        <v>75</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+    </row>
+    <row r="3" ht="15.35" customHeight="1">
+      <c r="A3" t="s" s="24">
+        <v>131</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" t="s" s="24">
+        <v>83</v>
+      </c>
+      <c r="D3" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" t="s" s="24">
+        <v>78</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" ht="15.35" customHeight="1">
+      <c r="A4" t="s" s="24">
+        <v>132</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" t="s" s="24">
+        <v>133</v>
+      </c>
+      <c r="D4" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" t="s" s="24">
+        <v>81</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" ht="15.35" customHeight="1">
+      <c r="A5" t="s" s="24">
+        <v>134</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D5" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" t="s" s="24">
+        <v>85</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" ht="15.35" customHeight="1">
+      <c r="A6" t="s" s="24">
+        <v>135</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D6" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" t="s" s="24">
+        <v>87</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+    </row>
+    <row r="7" ht="15.35" customHeight="1">
+      <c r="A7" t="s" s="24">
+        <v>136</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" t="s" s="24">
+        <v>137</v>
+      </c>
+      <c r="D7" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" t="s" s="24">
+        <v>90</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" ht="15.35" customHeight="1">
+      <c r="A8" t="s" s="24">
+        <v>138</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" t="s" s="24">
+        <v>137</v>
+      </c>
+      <c r="D8" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" t="s" s="24">
+        <v>92</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" ht="15.35" customHeight="1">
+      <c r="A9" t="s" s="24">
+        <v>139</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D9" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E9" t="s" s="24">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" t="s" s="24">
+        <v>95</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" ht="15.35" customHeight="1">
+      <c r="A10" t="s" s="24">
+        <v>140</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D10" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="24">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" t="s" s="24">
+        <v>98</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" ht="15.35" customHeight="1">
+      <c r="A11" t="s" s="24">
+        <v>141</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D11" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" t="s" s="24">
+        <v>101</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" ht="15.35" customHeight="1">
+      <c r="A12" t="s" s="24">
+        <v>142</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" t="s" s="24">
+        <v>143</v>
+      </c>
+      <c r="D12" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" t="s" s="24">
+        <v>104</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+    </row>
+    <row r="13" ht="15.35" customHeight="1">
+      <c r="A13" t="s" s="24">
+        <v>144</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D13" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" t="s" s="24">
+        <v>107</v>
+      </c>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" ht="15.35" customHeight="1">
+      <c r="A14" t="s" s="24">
+        <v>145</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D14" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" t="s" s="24">
+        <v>109</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" ht="15.35" customHeight="1">
+      <c r="A15" t="s" s="24">
+        <v>146</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D15" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" t="s" s="24">
+        <v>111</v>
+      </c>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+    </row>
+    <row r="16" ht="15.35" customHeight="1">
+      <c r="A16" t="s" s="24">
+        <v>147</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D16" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" t="s" s="24">
+        <v>113</v>
+      </c>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+    </row>
+    <row r="17" ht="15.35" customHeight="1">
+      <c r="A17" t="s" s="24">
+        <v>148</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" t="s" s="24">
+        <v>83</v>
+      </c>
+      <c r="D17" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" t="s" s="24">
+        <v>115</v>
+      </c>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" ht="15.35" customHeight="1">
+      <c r="A18" t="s" s="24">
+        <v>149</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D18" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" t="s" s="24">
         <v>117</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+    </row>
+    <row r="19" ht="15.35" customHeight="1">
+      <c r="A19" t="s" s="24">
+        <v>150</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D19" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" t="s" s="24">
+        <v>119</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" ht="15.35" customHeight="1">
+      <c r="A20" t="s" s="24">
+        <v>151</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" t="s" s="24">
+        <v>72</v>
+      </c>
+      <c r="D20" t="b" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" t="s" s="24">
+        <v>74</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" t="s" s="24">
+        <v>120</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
